--- a/project/DCR/data/撤回门店入库单成功.xlsx
+++ b/project/DCR/data/撤回门店入库单成功.xlsx
@@ -25,7 +25,7 @@
     <t>SN002425</t>
   </si>
   <si>
-    <t>356209114268102</t>
+    <t>356209114086694</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
